--- a/pokoje_pracownicze.xlsx
+++ b/pokoje_pracownicze.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21230"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D94BC7-6D44-427F-9F76-E5FEA2DD4ED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F7F9FE-C9D8-4379-8F6B-198CE47A05B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -22,285 +25,543 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="179">
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>0801000000</t>
+  </si>
+  <si>
+    <t>Lab. 1 KL FAMO</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	285</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>KR 40</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>0802000000</t>
+  </si>
+  <si>
+    <t>KR 31</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>557B</t>
+  </si>
+  <si>
+    <t>KR 12</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>396A</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>0.18 COK</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>396D</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>KAA 22a</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>25A KAA</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>15 SP</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>0806000000</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>COK 2.20</t>
+  </si>
+  <si>
+    <t>KR 47</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>10 SP</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>KR 110</t>
+  </si>
+  <si>
+    <t>KAA 24</t>
+  </si>
+  <si>
+    <t>Lab. III KL FAMO</t>
+  </si>
+  <si>
+    <t>214A</t>
+  </si>
+  <si>
+    <t>KAA 26B</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>1.08 COK</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>KAA 21b</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>478B</t>
+  </si>
+  <si>
+    <t>2.02 COK</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>KR 34</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>521A</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>0.21 COK</t>
+  </si>
+  <si>
+    <t>SP 11</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0801 </t>
+  </si>
+  <si>
+    <t>KAA 25c</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>KAA 25A</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>KR 35</t>
+  </si>
+  <si>
+    <t>KR 36</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>KR 42</t>
+  </si>
+  <si>
+    <t>KAA 23</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	269</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>6 SP</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>KR 32</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>477a</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>KAA 16</t>
+  </si>
+  <si>
+    <t>KAA 18</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>22c</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>KR 11</t>
+  </si>
+  <si>
+    <t>KAA 21A</t>
+  </si>
+  <si>
+    <t>KR 37</t>
+  </si>
+  <si>
+    <t>557A</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>KR 41</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>KR 39</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>KR 38</t>
+  </si>
+  <si>
+    <t>Laboratorium III</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>478A</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>26C</t>
+  </si>
+  <si>
+    <t>0.19 COK</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>KR 46</t>
+  </si>
+  <si>
+    <t>KR 33</t>
+  </si>
+  <si>
+    <t>KAA 19</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>KAA 26a</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>8 SP</t>
+  </si>
   <si>
     <t>0.24 COK</t>
   </si>
   <si>
-    <t>0801</t>
-  </si>
-  <si>
-    <t>0801000000</t>
-  </si>
-  <si>
-    <t>Lab. 1 KL FAMO</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	285</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>KR 40</t>
-  </si>
-  <si>
-    <t>0802</t>
-  </si>
-  <si>
-    <t>0802000000</t>
-  </si>
-  <si>
-    <t>KR 31</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>557B</t>
-  </si>
-  <si>
-    <t>KR 12</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>396A</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>0.18 COK</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>396D</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>KAA 22a</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>25A KAA</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>15 SP</t>
-  </si>
-  <si>
-    <t>0806</t>
-  </si>
-  <si>
-    <t>0806000000</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>COK 2.20</t>
-  </si>
-  <si>
-    <t>KR 47</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>10 SP</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>KR 110</t>
-  </si>
-  <si>
-    <t>KAA 24</t>
-  </si>
-  <si>
-    <t>Lab. III KL FAMO</t>
-  </si>
-  <si>
-    <t>214A</t>
-  </si>
-  <si>
-    <t>KAA 26B</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>1.08 COK</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>KAA 21b</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>478B</t>
-  </si>
-  <si>
-    <t>2.02 COK</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>KR 34</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>521A</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>0.21 COK</t>
-  </si>
-  <si>
-    <t>SP 11</t>
+    <t>501</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>KR 112</t>
+  </si>
+  <si>
+    <t>1.23 COK</t>
+  </si>
+  <si>
+    <t>Lab.1 KL FAMO</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>477b</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>16 SP</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>470</t>
   </si>
 </sst>
 </file>
@@ -343,7 +604,47 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -674,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1460,13 +1761,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>4</v>
@@ -1474,13 +1775,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
@@ -1488,7 +1789,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -1502,13 +1803,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>4</v>
@@ -1516,13 +1817,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>4</v>
@@ -1530,7 +1831,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -1544,7 +1845,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -1558,7 +1859,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -1572,13 +1873,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
@@ -1586,13 +1887,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>4</v>
@@ -1600,13 +1901,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>4</v>
@@ -1614,7 +1915,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -1628,7 +1929,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -1642,7 +1943,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -1656,7 +1957,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -1670,7 +1971,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -1684,7 +1985,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -1698,7 +1999,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -1712,7 +2013,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -1726,13 +2027,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>4</v>
@@ -1740,7 +2041,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -1754,7 +2055,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -1768,13 +2069,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>4</v>
@@ -1782,7 +2083,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
@@ -1796,7 +2097,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
@@ -1810,7 +2111,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
@@ -1824,7 +2125,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>1</v>
@@ -1838,7 +2139,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -1852,7 +2153,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -1866,7 +2167,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
@@ -1880,13 +2181,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>4</v>
@@ -1894,10 +2195,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -1908,13 +2209,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>4</v>
@@ -1922,10 +2223,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -1936,23 +2237,1184 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A34 A1:A28 A32 A45:A46 A51:A55 A57:A60 A62:A65 A69:A73 A75:A76 A82:A84 A89:A1048576 A86 A80 A67 A49 A42 A40 A38 A36">
+  <autoFilter ref="A1:A1048568" xr:uid="{C919C294-C52C-4867-867E-F6FCF2743493}"/>
+  <conditionalFormatting sqref="A99:A100 A85:A87 A72:A73 A67:A70 A34 A1:A28 A32 A45:A46 A51:A59 A95 A93 A90 A79:A82 A77 A61:A65 A49 A42 A40 A38 A36 A108:A114 A116:A120 A123:A1048576 A106 A104 A102">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A100 A85:A87 A72:A73 A67:A70 A1:A36 A45:A46 A51:A59 A95 A93 A90 A79:A82 A77 A61:A65 A49 A42 A40 A38 A108:A114 A116:A120 A123:A1048576 A106 A104 A102">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A100 A1:A96 A108:A114 A116:A120 A123:A1048576 A106 A104 A102">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A36 A45:A46 A51:A55 A57:A60 A62:A65 A69:A73 A75:A76 A82:A84 A89:A1048576 A86 A80 A67 A49 A42 A40 A38">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
